--- a/jyx2/Assets/Mods/PLUS/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/战斗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12275" windowHeight="8952"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="371">
   <si>
     <t>Jyx2Configs.Jyx2ConfigBattle</t>
   </si>
@@ -1109,6 +1109,24 @@
   </si>
   <si>
     <t>林战王语嫣</t>
+  </si>
+  <si>
+    <t>恒山精英</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>峨嵋精英</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>丐帮精英</t>
+  </si>
+  <si>
+    <t>331</t>
   </si>
 </sst>
 </file>
@@ -1740,12 +1758,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2070,19 +2091,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H273"/>
+  <dimension ref="A1:H276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C277" sqref="C277"/>
+      <selection pane="bottomLeft" activeCell="A273" sqref="A273:A276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="13.2222222222222" customWidth="1"/>
     <col min="6" max="6" width="9.13888888888889" customWidth="1"/>
-    <col min="8" max="8" width="91" style="1" customWidth="1"/>
+    <col min="8" max="8" width="91" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2112,33 +2133,33 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2164,7 +2185,7 @@
       <c r="G4">
         <v>-1</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2190,7 +2211,7 @@
       <c r="G5">
         <v>-1</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2216,7 +2237,7 @@
       <c r="G6">
         <v>-1</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2242,7 +2263,7 @@
       <c r="G7">
         <v>-1</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2268,7 +2289,7 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>3</v>
       </c>
     </row>
@@ -2276,7 +2297,7 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
@@ -2294,7 +2315,7 @@
       <c r="G9">
         <v>-1</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2320,7 +2341,7 @@
       <c r="G10">
         <v>-1</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2346,7 +2367,7 @@
       <c r="G11">
         <v>-1</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2372,7 +2393,7 @@
       <c r="G12">
         <v>-1</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2398,7 +2419,7 @@
       <c r="G13">
         <v>-1</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2424,7 +2445,7 @@
       <c r="G14">
         <v>-1</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>18</v>
       </c>
     </row>
@@ -2450,7 +2471,7 @@
       <c r="G15">
         <v>-1</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2476,7 +2497,7 @@
       <c r="G16">
         <v>-1</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2502,7 +2523,7 @@
       <c r="G17">
         <v>-1</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2528,7 +2549,7 @@
       <c r="G18">
         <v>-1</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <v>15</v>
       </c>
     </row>
@@ -2554,7 +2575,7 @@
       <c r="G19">
         <v>-1</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2580,7 +2601,7 @@
       <c r="G20">
         <v>-1</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2606,7 +2627,7 @@
       <c r="G21">
         <v>-1</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2632,7 +2653,7 @@
       <c r="G22">
         <v>-1</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2658,7 +2679,7 @@
       <c r="G23">
         <v>-1</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2684,7 +2705,7 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <v>6</v>
       </c>
     </row>
@@ -2710,7 +2731,7 @@
       <c r="G25">
         <v>-1</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2736,7 +2757,7 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>5</v>
       </c>
     </row>
@@ -2762,7 +2783,7 @@
       <c r="G27">
         <v>-1</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2788,7 +2809,7 @@
       <c r="G28">
         <v>-1</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2814,7 +2835,7 @@
       <c r="G29">
         <v>-1</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2840,7 +2861,7 @@
       <c r="G30">
         <v>-1</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2866,7 +2887,7 @@
       <c r="G31">
         <v>-1</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2892,7 +2913,7 @@
       <c r="G32">
         <v>-1</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2918,7 +2939,7 @@
       <c r="G33">
         <v>-1</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2944,7 +2965,7 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="2">
         <v>23</v>
       </c>
     </row>
@@ -2970,7 +2991,7 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="2">
         <v>21</v>
       </c>
     </row>
@@ -2996,7 +3017,7 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="2">
         <v>20</v>
       </c>
     </row>
@@ -3022,7 +3043,7 @@
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="2">
         <v>22</v>
       </c>
     </row>
@@ -3048,7 +3069,7 @@
       <c r="G38">
         <v>35</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="2">
         <v>23</v>
       </c>
     </row>
@@ -3074,7 +3095,7 @@
       <c r="G39">
         <v>35</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="2">
         <v>21</v>
       </c>
     </row>
@@ -3100,7 +3121,7 @@
       <c r="G40">
         <v>35</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="2">
         <v>20</v>
       </c>
     </row>
@@ -3126,7 +3147,7 @@
       <c r="G41">
         <v>35</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="2">
         <v>22</v>
       </c>
     </row>
@@ -3152,7 +3173,7 @@
       <c r="G42">
         <v>-1</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3178,7 +3199,7 @@
       <c r="G43">
         <v>-1</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3204,7 +3225,7 @@
       <c r="G44">
         <v>-1</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3230,7 +3251,7 @@
       <c r="G45">
         <v>-1</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3256,7 +3277,7 @@
       <c r="G46">
         <v>-1</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3282,7 +3303,7 @@
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="2">
         <v>31</v>
       </c>
     </row>
@@ -3308,7 +3329,7 @@
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="2">
         <v>32</v>
       </c>
     </row>
@@ -3334,7 +3355,7 @@
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="2">
         <v>33</v>
       </c>
     </row>
@@ -3360,7 +3381,7 @@
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="2">
         <v>34</v>
       </c>
     </row>
@@ -3386,7 +3407,7 @@
       <c r="G51">
         <v>-1</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3412,7 +3433,7 @@
       <c r="G52">
         <v>-1</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="2">
         <v>36</v>
       </c>
     </row>
@@ -3438,7 +3459,7 @@
       <c r="G53">
         <v>-1</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3464,7 +3485,7 @@
       <c r="G54">
         <v>-1</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="2" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3490,7 +3511,7 @@
       <c r="G55">
         <v>36</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="2" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3516,7 +3537,7 @@
       <c r="G56">
         <v>-1</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="2">
         <v>28</v>
       </c>
     </row>
@@ -3542,7 +3563,7 @@
       <c r="G57">
         <v>-1</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="2">
         <v>29</v>
       </c>
     </row>
@@ -3568,7 +3589,7 @@
       <c r="G58">
         <v>-1</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3594,7 +3615,7 @@
       <c r="G59">
         <v>-1</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" s="2" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3620,7 +3641,7 @@
       <c r="G60">
         <v>-1</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3646,7 +3667,7 @@
       <c r="G61">
         <v>-1</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3672,7 +3693,7 @@
       <c r="G62">
         <v>-1</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3698,7 +3719,7 @@
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="2">
         <v>43</v>
       </c>
     </row>
@@ -3724,7 +3745,7 @@
       <c r="G64">
         <v>-1</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3750,7 +3771,7 @@
       <c r="G65">
         <v>-1</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H65" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3776,7 +3797,7 @@
       <c r="G66">
         <v>-1</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H66" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3802,7 +3823,7 @@
       <c r="G67">
         <v>-1</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H67" s="2" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3828,7 +3849,7 @@
       <c r="G68">
         <v>-1</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H68" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3854,7 +3875,7 @@
       <c r="G69">
         <v>-1</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H69" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3880,7 +3901,7 @@
       <c r="G70">
         <v>-1</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70" s="2">
         <v>77</v>
       </c>
     </row>
@@ -3906,7 +3927,7 @@
       <c r="G71">
         <v>-1</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="2">
         <v>64</v>
       </c>
     </row>
@@ -3932,7 +3953,7 @@
       <c r="G72">
         <v>-1</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72" s="2">
         <v>65</v>
       </c>
     </row>
@@ -3958,7 +3979,7 @@
       <c r="G73">
         <v>-1</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="2">
         <v>61</v>
       </c>
     </row>
@@ -3984,7 +4005,7 @@
       <c r="G74">
         <v>-1</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4010,7 +4031,7 @@
       <c r="G75">
         <v>-1</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4036,7 +4057,7 @@
       <c r="G76">
         <v>-1</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H76" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4062,7 +4083,7 @@
       <c r="G77">
         <v>-1</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H77" s="2" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4088,7 +4109,7 @@
       <c r="G78">
         <v>-1</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H78" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4114,7 +4135,7 @@
       <c r="G79">
         <v>-1</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H79" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4140,7 +4161,7 @@
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H80" s="2">
         <v>55</v>
       </c>
     </row>
@@ -4166,7 +4187,7 @@
       <c r="G81">
         <v>-1</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H81" s="2" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4174,7 +4195,7 @@
       <c r="A82">
         <v>78</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="5" t="s">
         <v>157</v>
       </c>
       <c r="C82" t="s">
@@ -4192,7 +4213,7 @@
       <c r="G82">
         <v>-1</v>
       </c>
-      <c r="H82" s="1">
+      <c r="H82" s="2">
         <v>78</v>
       </c>
     </row>
@@ -4218,7 +4239,7 @@
       <c r="G83">
         <v>-1</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="H83" s="2" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4244,7 +4265,7 @@
       <c r="G84">
         <v>-1</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="H84" s="2" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4270,7 +4291,7 @@
       <c r="G85">
         <v>-1</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="H85" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4296,7 +4317,7 @@
       <c r="G86">
         <v>-1</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H86" s="2" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4322,7 +4343,7 @@
       <c r="G87">
         <v>0</v>
       </c>
-      <c r="H87" s="1">
+      <c r="H87" s="2">
         <v>50</v>
       </c>
     </row>
@@ -4348,7 +4369,7 @@
       <c r="G88">
         <v>-1</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="H88" s="2" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4374,7 +4395,7 @@
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="H89" s="1">
+      <c r="H89" s="2">
         <v>51</v>
       </c>
     </row>
@@ -4400,7 +4421,7 @@
       <c r="G90">
         <v>-1</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H90" s="2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4426,7 +4447,7 @@
       <c r="G91">
         <v>-1</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="H91" s="2" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4452,7 +4473,7 @@
       <c r="G92">
         <v>-1</v>
       </c>
-      <c r="H92" s="1">
+      <c r="H92" s="2">
         <v>48</v>
       </c>
     </row>
@@ -4478,7 +4499,7 @@
       <c r="G93">
         <v>-1</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="H93" s="2" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4504,7 +4525,7 @@
       <c r="G94">
         <v>-1</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="H94" s="2" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4530,7 +4551,7 @@
       <c r="G95">
         <v>-1</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="H95" s="2" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4556,7 +4577,7 @@
       <c r="G96">
         <v>-1</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H96" s="2" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4582,7 +4603,7 @@
       <c r="G97">
         <v>-1</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H97" s="2" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4608,7 +4629,7 @@
       <c r="G98">
         <v>-1</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H98" s="2" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4634,7 +4655,7 @@
       <c r="G99">
         <v>-1</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="H99" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4660,7 +4681,7 @@
       <c r="G100">
         <v>-1</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H100" s="2" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4686,7 +4707,7 @@
       <c r="G101">
         <v>-1</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="H101" s="2" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4712,7 +4733,7 @@
       <c r="G102">
         <v>-1</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H102" s="2" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4738,7 +4759,7 @@
       <c r="G103">
         <v>-1</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="H103" s="2" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4764,7 +4785,7 @@
       <c r="G104">
         <v>-1</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="H104" s="2" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4790,7 +4811,7 @@
       <c r="G105">
         <v>-1</v>
       </c>
-      <c r="H105" s="1">
+      <c r="H105" s="2">
         <v>54</v>
       </c>
     </row>
@@ -4816,7 +4837,7 @@
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H106" s="2">
         <v>8</v>
       </c>
     </row>
@@ -4842,7 +4863,7 @@
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="H107" s="1">
+      <c r="H107" s="2">
         <v>21</v>
       </c>
     </row>
@@ -4868,7 +4889,7 @@
       <c r="G108">
         <v>0</v>
       </c>
-      <c r="H108" s="1">
+      <c r="H108" s="2">
         <v>23</v>
       </c>
     </row>
@@ -4894,7 +4915,7 @@
       <c r="G109">
         <v>0</v>
       </c>
-      <c r="H109" s="1">
+      <c r="H109" s="2">
         <v>31</v>
       </c>
     </row>
@@ -4920,7 +4941,7 @@
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="H110" s="1">
+      <c r="H110" s="2">
         <v>32</v>
       </c>
     </row>
@@ -4946,7 +4967,7 @@
       <c r="G111">
         <v>0</v>
       </c>
-      <c r="H111" s="1">
+      <c r="H111" s="2">
         <v>43</v>
       </c>
     </row>
@@ -4972,7 +4993,7 @@
       <c r="G112">
         <v>0</v>
       </c>
-      <c r="H112" s="1">
+      <c r="H112" s="2">
         <v>7</v>
       </c>
     </row>
@@ -4998,7 +5019,7 @@
       <c r="G113">
         <v>0</v>
       </c>
-      <c r="H113" s="1">
+      <c r="H113" s="2">
         <v>11</v>
       </c>
     </row>
@@ -5024,7 +5045,7 @@
       <c r="G114">
         <v>0</v>
       </c>
-      <c r="H114" s="1">
+      <c r="H114" s="2">
         <v>14</v>
       </c>
     </row>
@@ -5050,7 +5071,7 @@
       <c r="G115">
         <v>0</v>
       </c>
-      <c r="H115" s="1">
+      <c r="H115" s="2">
         <v>20</v>
       </c>
     </row>
@@ -5076,7 +5097,7 @@
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="H116" s="1">
+      <c r="H116" s="2">
         <v>33</v>
       </c>
     </row>
@@ -5102,7 +5123,7 @@
       <c r="G117">
         <v>0</v>
       </c>
-      <c r="H117" s="1">
+      <c r="H117" s="2">
         <v>34</v>
       </c>
     </row>
@@ -5128,7 +5149,7 @@
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="H118" s="1">
+      <c r="H118" s="2">
         <v>10</v>
       </c>
     </row>
@@ -5154,7 +5175,7 @@
       <c r="G119">
         <v>0</v>
       </c>
-      <c r="H119" s="1">
+      <c r="H119" s="2">
         <v>12</v>
       </c>
     </row>
@@ -5180,7 +5201,7 @@
       <c r="G120">
         <v>0</v>
       </c>
-      <c r="H120" s="1">
+      <c r="H120" s="2">
         <v>19</v>
       </c>
     </row>
@@ -5206,7 +5227,7 @@
       <c r="G121">
         <v>0</v>
       </c>
-      <c r="H121" s="1">
+      <c r="H121" s="2">
         <v>22</v>
       </c>
     </row>
@@ -5232,7 +5253,7 @@
       <c r="G122">
         <v>0</v>
       </c>
-      <c r="H122" s="1">
+      <c r="H122" s="2">
         <v>56</v>
       </c>
     </row>
@@ -5258,7 +5279,7 @@
       <c r="G123">
         <v>0</v>
       </c>
-      <c r="H123" s="1">
+      <c r="H123" s="2">
         <v>68</v>
       </c>
     </row>
@@ -5284,7 +5305,7 @@
       <c r="G124">
         <v>0</v>
       </c>
-      <c r="H124" s="1">
+      <c r="H124" s="2">
         <v>13</v>
       </c>
     </row>
@@ -5310,7 +5331,7 @@
       <c r="G125">
         <v>0</v>
       </c>
-      <c r="H125" s="1">
+      <c r="H125" s="2">
         <v>55</v>
       </c>
     </row>
@@ -5336,7 +5357,7 @@
       <c r="G126">
         <v>0</v>
       </c>
-      <c r="H126" s="1">
+      <c r="H126" s="2">
         <v>62</v>
       </c>
     </row>
@@ -5362,7 +5383,7 @@
       <c r="G127">
         <v>0</v>
       </c>
-      <c r="H127" s="1">
+      <c r="H127" s="2">
         <v>67</v>
       </c>
     </row>
@@ -5388,7 +5409,7 @@
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="H128" s="1">
+      <c r="H128" s="2">
         <v>70</v>
       </c>
     </row>
@@ -5414,7 +5435,7 @@
       <c r="G129">
         <v>0</v>
       </c>
-      <c r="H129" s="1">
+      <c r="H129" s="2">
         <v>71</v>
       </c>
     </row>
@@ -5440,7 +5461,7 @@
       <c r="G130">
         <v>0</v>
       </c>
-      <c r="H130" s="1">
+      <c r="H130" s="2">
         <v>26</v>
       </c>
     </row>
@@ -5466,7 +5487,7 @@
       <c r="G131">
         <v>0</v>
       </c>
-      <c r="H131" s="1">
+      <c r="H131" s="2">
         <v>57</v>
       </c>
     </row>
@@ -5492,7 +5513,7 @@
       <c r="G132">
         <v>0</v>
       </c>
-      <c r="H132" s="1">
+      <c r="H132" s="2">
         <v>60</v>
       </c>
     </row>
@@ -5518,7 +5539,7 @@
       <c r="G133">
         <v>0</v>
       </c>
-      <c r="H133" s="1">
+      <c r="H133" s="2">
         <v>64</v>
       </c>
     </row>
@@ -5544,7 +5565,7 @@
       <c r="G134">
         <v>0</v>
       </c>
-      <c r="H134" s="1">
+      <c r="H134" s="2">
         <v>3</v>
       </c>
     </row>
@@ -5570,7 +5591,7 @@
       <c r="G135">
         <v>0</v>
       </c>
-      <c r="H135" s="1">
+      <c r="H135" s="2">
         <v>69</v>
       </c>
     </row>
@@ -5596,7 +5617,7 @@
       <c r="G136">
         <v>-1</v>
       </c>
-      <c r="H136" s="1">
+      <c r="H136" s="2">
         <v>15</v>
       </c>
     </row>
@@ -5622,7 +5643,7 @@
       <c r="G137">
         <v>0</v>
       </c>
-      <c r="H137" s="1" t="s">
+      <c r="H137" s="2" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5648,7 +5669,7 @@
       <c r="G138">
         <v>0</v>
       </c>
-      <c r="H138" s="1" t="s">
+      <c r="H138" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5674,7 +5695,7 @@
       <c r="G139">
         <v>-1</v>
       </c>
-      <c r="H139" s="1">
+      <c r="H139" s="2">
         <v>64</v>
       </c>
     </row>
@@ -5700,7 +5721,7 @@
       <c r="G140">
         <v>0</v>
       </c>
-      <c r="H140" s="1">
+      <c r="H140" s="2">
         <v>69</v>
       </c>
     </row>
@@ -5726,7 +5747,7 @@
       <c r="G141">
         <v>0</v>
       </c>
-      <c r="H141" s="1">
+      <c r="H141" s="2">
         <v>69</v>
       </c>
     </row>
@@ -5752,7 +5773,7 @@
       <c r="G142">
         <v>0</v>
       </c>
-      <c r="H142" s="1">
+      <c r="H142" s="2">
         <v>69</v>
       </c>
     </row>
@@ -5778,7 +5799,7 @@
       <c r="G143">
         <v>0</v>
       </c>
-      <c r="H143" s="1" t="s">
+      <c r="H143" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5786,7 +5807,7 @@
       <c r="A144">
         <v>200</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="3" t="s">
         <v>212</v>
       </c>
       <c r="C144" t="s">
@@ -5804,7 +5825,7 @@
       <c r="G144">
         <v>0</v>
       </c>
-      <c r="H144" s="1" t="s">
+      <c r="H144" s="2" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5812,7 +5833,7 @@
       <c r="A145">
         <v>201</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C145" t="s">
@@ -5830,7 +5851,7 @@
       <c r="G145">
         <v>0</v>
       </c>
-      <c r="H145" s="1" t="s">
+      <c r="H145" s="2" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5838,7 +5859,7 @@
       <c r="A146">
         <v>202</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C146" t="s">
@@ -5856,7 +5877,7 @@
       <c r="G146">
         <v>0</v>
       </c>
-      <c r="H146" s="1" t="s">
+      <c r="H146" s="2" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5864,7 +5885,7 @@
       <c r="A147">
         <v>203</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C147" t="s">
@@ -5882,7 +5903,7 @@
       <c r="G147">
         <v>0</v>
       </c>
-      <c r="H147" s="1" t="s">
+      <c r="H147" s="2" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5890,7 +5911,7 @@
       <c r="A148">
         <v>204</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C148" t="s">
@@ -5908,7 +5929,7 @@
       <c r="G148">
         <v>0</v>
       </c>
-      <c r="H148" s="1" t="s">
+      <c r="H148" s="2" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5916,7 +5937,7 @@
       <c r="A149">
         <v>205</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C149" t="s">
@@ -5934,7 +5955,7 @@
       <c r="G149">
         <v>0</v>
       </c>
-      <c r="H149" s="1" t="s">
+      <c r="H149" s="2" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5942,7 +5963,7 @@
       <c r="A150">
         <v>206</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C150" t="s">
@@ -5960,7 +5981,7 @@
       <c r="G150">
         <v>0</v>
       </c>
-      <c r="H150" s="1" t="s">
+      <c r="H150" s="2" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5968,7 +5989,7 @@
       <c r="A151">
         <v>207</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C151" t="s">
@@ -5986,7 +6007,7 @@
       <c r="G151">
         <v>0</v>
       </c>
-      <c r="H151" s="1" t="s">
+      <c r="H151" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5994,7 +6015,7 @@
       <c r="A152">
         <v>208</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C152" t="s">
@@ -6012,7 +6033,7 @@
       <c r="G152">
         <v>0</v>
       </c>
-      <c r="H152" s="1" t="s">
+      <c r="H152" s="2" t="s">
         <v>222</v>
       </c>
     </row>
@@ -6020,7 +6041,7 @@
       <c r="A153">
         <v>209</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C153" t="s">
@@ -6038,7 +6059,7 @@
       <c r="G153">
         <v>0</v>
       </c>
-      <c r="H153" s="1" t="s">
+      <c r="H153" s="2" t="s">
         <v>223</v>
       </c>
     </row>
@@ -6046,7 +6067,7 @@
       <c r="A154">
         <v>210</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C154" t="s">
@@ -6064,7 +6085,7 @@
       <c r="G154">
         <v>0</v>
       </c>
-      <c r="H154" s="1" t="s">
+      <c r="H154" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6072,7 +6093,7 @@
       <c r="A155">
         <v>211</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C155" t="s">
@@ -6090,7 +6111,7 @@
       <c r="G155">
         <v>0</v>
       </c>
-      <c r="H155" s="1" t="s">
+      <c r="H155" s="2" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6098,7 +6119,7 @@
       <c r="A156">
         <v>212</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C156" t="s">
@@ -6116,7 +6137,7 @@
       <c r="G156">
         <v>0</v>
       </c>
-      <c r="H156" s="1" t="s">
+      <c r="H156" s="2" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6124,7 +6145,7 @@
       <c r="A157">
         <v>213</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C157" t="s">
@@ -6142,7 +6163,7 @@
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="H157" s="1" t="s">
+      <c r="H157" s="2" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6150,7 +6171,7 @@
       <c r="A158">
         <v>214</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C158" t="s">
@@ -6168,7 +6189,7 @@
       <c r="G158">
         <v>0</v>
       </c>
-      <c r="H158" s="1" t="s">
+      <c r="H158" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6176,7 +6197,7 @@
       <c r="A159">
         <v>215</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C159" t="s">
@@ -6194,7 +6215,7 @@
       <c r="G159">
         <v>0</v>
       </c>
-      <c r="H159" s="1" t="s">
+      <c r="H159" s="2" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6202,7 +6223,7 @@
       <c r="A160">
         <v>216</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C160" t="s">
@@ -6220,7 +6241,7 @@
       <c r="G160">
         <v>0</v>
       </c>
-      <c r="H160" s="1" t="s">
+      <c r="H160" s="2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6228,7 +6249,7 @@
       <c r="A161">
         <v>217</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C161" t="s">
@@ -6246,7 +6267,7 @@
       <c r="G161">
         <v>0</v>
       </c>
-      <c r="H161" s="1" t="s">
+      <c r="H161" s="2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6254,7 +6275,7 @@
       <c r="A162">
         <v>218</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C162" t="s">
@@ -6272,7 +6293,7 @@
       <c r="G162">
         <v>0</v>
       </c>
-      <c r="H162" s="1" t="s">
+      <c r="H162" s="2" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6280,7 +6301,7 @@
       <c r="A163">
         <v>219</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C163" t="s">
@@ -6298,7 +6319,7 @@
       <c r="G163">
         <v>0</v>
       </c>
-      <c r="H163" s="1" t="s">
+      <c r="H163" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6306,7 +6327,7 @@
       <c r="A164">
         <v>220</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C164" t="s">
@@ -6324,7 +6345,7 @@
       <c r="G164">
         <v>0</v>
       </c>
-      <c r="H164" s="1" t="s">
+      <c r="H164" s="2" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6332,7 +6353,7 @@
       <c r="A165">
         <v>221</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C165" t="s">
@@ -6350,7 +6371,7 @@
       <c r="G165">
         <v>0</v>
       </c>
-      <c r="H165" s="1" t="s">
+      <c r="H165" s="2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6358,7 +6379,7 @@
       <c r="A166">
         <v>222</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C166" t="s">
@@ -6376,7 +6397,7 @@
       <c r="G166">
         <v>0</v>
       </c>
-      <c r="H166" s="1" t="s">
+      <c r="H166" s="2" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6384,7 +6405,7 @@
       <c r="A167">
         <v>223</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C167" t="s">
@@ -6402,7 +6423,7 @@
       <c r="G167">
         <v>0</v>
       </c>
-      <c r="H167" s="1" t="s">
+      <c r="H167" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6410,7 +6431,7 @@
       <c r="A168">
         <v>224</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C168" t="s">
@@ -6428,7 +6449,7 @@
       <c r="G168">
         <v>0</v>
       </c>
-      <c r="H168" s="1" t="s">
+      <c r="H168" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6436,7 +6457,7 @@
       <c r="A169">
         <v>225</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C169" t="s">
@@ -6454,7 +6475,7 @@
       <c r="G169">
         <v>0</v>
       </c>
-      <c r="H169" s="1" t="s">
+      <c r="H169" s="2" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6462,7 +6483,7 @@
       <c r="A170">
         <v>226</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C170" t="s">
@@ -6480,7 +6501,7 @@
       <c r="G170">
         <v>0</v>
       </c>
-      <c r="H170" s="1" t="s">
+      <c r="H170" s="2" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6488,7 +6509,7 @@
       <c r="A171">
         <v>227</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C171" t="s">
@@ -6506,7 +6527,7 @@
       <c r="G171">
         <v>0</v>
       </c>
-      <c r="H171" s="1" t="s">
+      <c r="H171" s="2" t="s">
         <v>237</v>
       </c>
     </row>
@@ -6514,7 +6535,7 @@
       <c r="A172">
         <v>228</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C172" t="s">
@@ -6532,7 +6553,7 @@
       <c r="G172">
         <v>0</v>
       </c>
-      <c r="H172" s="1" t="s">
+      <c r="H172" s="2" t="s">
         <v>238</v>
       </c>
     </row>
@@ -6540,7 +6561,7 @@
       <c r="A173">
         <v>229</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C173" t="s">
@@ -6558,7 +6579,7 @@
       <c r="G173">
         <v>0</v>
       </c>
-      <c r="H173" s="1" t="s">
+      <c r="H173" s="2" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6566,7 +6587,7 @@
       <c r="A174">
         <v>230</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C174" t="s">
@@ -6584,7 +6605,7 @@
       <c r="G174">
         <v>0</v>
       </c>
-      <c r="H174" s="1" t="s">
+      <c r="H174" s="2" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6592,7 +6613,7 @@
       <c r="A175">
         <v>231</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C175" t="s">
@@ -6610,7 +6631,7 @@
       <c r="G175">
         <v>0</v>
       </c>
-      <c r="H175" s="1" t="s">
+      <c r="H175" s="2" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6618,7 +6639,7 @@
       <c r="A176">
         <v>232</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="3" t="s">
         <v>242</v>
       </c>
       <c r="C176" t="s">
@@ -6636,7 +6657,7 @@
       <c r="G176">
         <v>-1</v>
       </c>
-      <c r="H176" s="1" t="s">
+      <c r="H176" s="2" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6644,7 +6665,7 @@
       <c r="A177">
         <v>233</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="3" t="s">
         <v>244</v>
       </c>
       <c r="C177" t="s">
@@ -6662,7 +6683,7 @@
       <c r="G177">
         <v>-1</v>
       </c>
-      <c r="H177" s="1" t="s">
+      <c r="H177" s="2" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6670,7 +6691,7 @@
       <c r="A178">
         <v>234</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="3" t="s">
         <v>246</v>
       </c>
       <c r="C178" t="s">
@@ -6688,7 +6709,7 @@
       <c r="G178">
         <v>-1</v>
       </c>
-      <c r="H178" s="1" t="s">
+      <c r="H178" s="2" t="s">
         <v>247</v>
       </c>
     </row>
@@ -6696,7 +6717,7 @@
       <c r="A179">
         <v>235</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="3" t="s">
         <v>242</v>
       </c>
       <c r="C179" t="s">
@@ -6714,7 +6735,7 @@
       <c r="G179">
         <v>-1</v>
       </c>
-      <c r="H179" s="1" t="s">
+      <c r="H179" s="2" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6722,7 +6743,7 @@
       <c r="A180">
         <v>236</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C180" t="s">
@@ -6740,7 +6761,7 @@
       <c r="G180">
         <v>-1</v>
       </c>
-      <c r="H180" s="1" t="s">
+      <c r="H180" s="2" t="s">
         <v>249</v>
       </c>
     </row>
@@ -6748,7 +6769,7 @@
       <c r="A181">
         <v>237</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="3" t="s">
         <v>246</v>
       </c>
       <c r="C181" t="s">
@@ -6766,7 +6787,7 @@
       <c r="G181">
         <v>-1</v>
       </c>
-      <c r="H181" s="1" t="s">
+      <c r="H181" s="2" t="s">
         <v>247</v>
       </c>
     </row>
@@ -6774,7 +6795,7 @@
       <c r="A182">
         <v>238</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="3" t="s">
         <v>250</v>
       </c>
       <c r="C182" t="s">
@@ -6792,7 +6813,7 @@
       <c r="G182">
         <v>-1</v>
       </c>
-      <c r="H182" s="1" t="s">
+      <c r="H182" s="2" t="s">
         <v>251</v>
       </c>
     </row>
@@ -6800,7 +6821,7 @@
       <c r="A183">
         <v>239</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C183" t="s">
@@ -6818,7 +6839,7 @@
       <c r="G183">
         <v>-1</v>
       </c>
-      <c r="H183" s="1" t="s">
+      <c r="H183" s="2" t="s">
         <v>253</v>
       </c>
     </row>
@@ -6826,7 +6847,7 @@
       <c r="A184">
         <v>240</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C184" t="s">
@@ -6844,7 +6865,7 @@
       <c r="G184">
         <v>-1</v>
       </c>
-      <c r="H184" s="1" t="s">
+      <c r="H184" s="2" t="s">
         <v>249</v>
       </c>
     </row>
@@ -6852,7 +6873,7 @@
       <c r="A185">
         <v>241</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="3" t="s">
         <v>244</v>
       </c>
       <c r="C185" t="s">
@@ -6870,7 +6891,7 @@
       <c r="G185">
         <v>-1</v>
       </c>
-      <c r="H185" s="1" t="s">
+      <c r="H185" s="2" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6878,7 +6899,7 @@
       <c r="A186">
         <v>242</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C186" t="s">
@@ -6896,7 +6917,7 @@
       <c r="G186">
         <v>-1</v>
       </c>
-      <c r="H186" s="1" t="s">
+      <c r="H186" s="2" t="s">
         <v>255</v>
       </c>
     </row>
@@ -6904,7 +6925,7 @@
       <c r="A187">
         <v>243</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="3" t="s">
         <v>256</v>
       </c>
       <c r="C187" t="s">
@@ -6922,7 +6943,7 @@
       <c r="G187">
         <v>-1</v>
       </c>
-      <c r="H187" s="1" t="s">
+      <c r="H187" s="2" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6930,7 +6951,7 @@
       <c r="A188">
         <v>244</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C188" t="s">
@@ -6948,7 +6969,7 @@
       <c r="G188">
         <v>-1</v>
       </c>
-      <c r="H188" s="1" t="s">
+      <c r="H188" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -6956,7 +6977,7 @@
       <c r="A189">
         <v>245</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C189" t="s">
@@ -6974,7 +6995,7 @@
       <c r="G189">
         <v>-1</v>
       </c>
-      <c r="H189" s="1" t="s">
+      <c r="H189" s="2" t="s">
         <v>249</v>
       </c>
     </row>
@@ -6982,7 +7003,7 @@
       <c r="A190">
         <v>246</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="3" t="s">
         <v>258</v>
       </c>
       <c r="C190" t="s">
@@ -7000,7 +7021,7 @@
       <c r="G190">
         <v>35</v>
       </c>
-      <c r="H190" s="1" t="s">
+      <c r="H190" s="2" t="s">
         <v>249</v>
       </c>
     </row>
@@ -7008,7 +7029,7 @@
       <c r="A191">
         <v>247</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C191" t="s">
@@ -7026,7 +7047,7 @@
       <c r="G191">
         <v>0</v>
       </c>
-      <c r="H191" s="1" t="s">
+      <c r="H191" s="2" t="s">
         <v>261</v>
       </c>
     </row>
@@ -7034,7 +7055,7 @@
       <c r="A192">
         <v>248</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C192" t="s">
@@ -7052,7 +7073,7 @@
       <c r="G192">
         <v>0</v>
       </c>
-      <c r="H192" s="1" t="s">
+      <c r="H192" s="2" t="s">
         <v>262</v>
       </c>
     </row>
@@ -7060,7 +7081,7 @@
       <c r="A193">
         <v>249</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C193" t="s">
@@ -7078,7 +7099,7 @@
       <c r="G193">
         <v>0</v>
       </c>
-      <c r="H193" s="1" t="s">
+      <c r="H193" s="2" t="s">
         <v>263</v>
       </c>
     </row>
@@ -7086,7 +7107,7 @@
       <c r="A194">
         <v>250</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C194" t="s">
@@ -7104,7 +7125,7 @@
       <c r="G194">
         <v>0</v>
       </c>
-      <c r="H194" s="1" t="s">
+      <c r="H194" s="2" t="s">
         <v>264</v>
       </c>
     </row>
@@ -7112,7 +7133,7 @@
       <c r="A195">
         <v>251</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C195" t="s">
@@ -7130,7 +7151,7 @@
       <c r="G195">
         <v>0</v>
       </c>
-      <c r="H195" s="1" t="s">
+      <c r="H195" s="2" t="s">
         <v>265</v>
       </c>
     </row>
@@ -7138,7 +7159,7 @@
       <c r="A196">
         <v>252</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C196" t="s">
@@ -7156,7 +7177,7 @@
       <c r="G196">
         <v>0</v>
       </c>
-      <c r="H196" s="1" t="s">
+      <c r="H196" s="2" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7164,7 +7185,7 @@
       <c r="A197">
         <v>253</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C197" t="s">
@@ -7182,7 +7203,7 @@
       <c r="G197">
         <v>0</v>
       </c>
-      <c r="H197" s="1" t="s">
+      <c r="H197" s="2" t="s">
         <v>267</v>
       </c>
     </row>
@@ -7190,7 +7211,7 @@
       <c r="A198">
         <v>254</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C198" t="s">
@@ -7208,7 +7229,7 @@
       <c r="G198">
         <v>0</v>
       </c>
-      <c r="H198" s="1" t="s">
+      <c r="H198" s="2" t="s">
         <v>268</v>
       </c>
     </row>
@@ -7216,7 +7237,7 @@
       <c r="A199">
         <v>255</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C199" t="s">
@@ -7234,7 +7255,7 @@
       <c r="G199">
         <v>0</v>
       </c>
-      <c r="H199" s="1" t="s">
+      <c r="H199" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7242,7 +7263,7 @@
       <c r="A200">
         <v>256</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="3" t="s">
         <v>270</v>
       </c>
       <c r="C200" t="s">
@@ -7260,7 +7281,7 @@
       <c r="G200">
         <v>0</v>
       </c>
-      <c r="H200" s="1" t="s">
+      <c r="H200" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -7268,7 +7289,7 @@
       <c r="A201">
         <v>257</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="3" t="s">
         <v>272</v>
       </c>
       <c r="C201" t="s">
@@ -7286,7 +7307,7 @@
       <c r="G201">
         <v>0</v>
       </c>
-      <c r="H201" s="1" t="s">
+      <c r="H201" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -7294,7 +7315,7 @@
       <c r="A202">
         <v>258</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="3" t="s">
         <v>274</v>
       </c>
       <c r="C202" t="s">
@@ -7312,7 +7333,7 @@
       <c r="G202">
         <v>0</v>
       </c>
-      <c r="H202" s="1" t="s">
+      <c r="H202" s="2" t="s">
         <v>275</v>
       </c>
     </row>
@@ -7320,7 +7341,7 @@
       <c r="A203">
         <v>259</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="3" t="s">
         <v>276</v>
       </c>
       <c r="C203" t="s">
@@ -7338,7 +7359,7 @@
       <c r="G203">
         <v>0</v>
       </c>
-      <c r="H203" s="1" t="s">
+      <c r="H203" s="2" t="s">
         <v>277</v>
       </c>
     </row>
@@ -7346,7 +7367,7 @@
       <c r="A204">
         <v>260</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="3" t="s">
         <v>196</v>
       </c>
       <c r="C204" t="s">
@@ -7364,7 +7385,7 @@
       <c r="G204">
         <v>0</v>
       </c>
-      <c r="H204" s="1" t="s">
+      <c r="H204" s="2" t="s">
         <v>278</v>
       </c>
     </row>
@@ -7372,7 +7393,7 @@
       <c r="A205">
         <v>261</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C205" t="s">
@@ -7390,7 +7411,7 @@
       <c r="G205">
         <v>0</v>
       </c>
-      <c r="H205" s="1" t="s">
+      <c r="H205" s="2" t="s">
         <v>279</v>
       </c>
     </row>
@@ -7398,7 +7419,7 @@
       <c r="A206">
         <v>262</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="3" t="s">
         <v>280</v>
       </c>
       <c r="C206" t="s">
@@ -7416,7 +7437,7 @@
       <c r="G206">
         <v>0</v>
       </c>
-      <c r="H206" s="1" t="s">
+      <c r="H206" s="2" t="s">
         <v>281</v>
       </c>
     </row>
@@ -7424,7 +7445,7 @@
       <c r="A207">
         <v>263</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="3" t="s">
         <v>282</v>
       </c>
       <c r="C207" t="s">
@@ -7442,7 +7463,7 @@
       <c r="G207">
         <v>0</v>
       </c>
-      <c r="H207" s="1" t="s">
+      <c r="H207" s="2" t="s">
         <v>283</v>
       </c>
     </row>
@@ -7450,7 +7471,7 @@
       <c r="A208">
         <v>264</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C208" t="s">
@@ -7468,7 +7489,7 @@
       <c r="G208">
         <v>0</v>
       </c>
-      <c r="H208" s="1" t="s">
+      <c r="H208" s="2" t="s">
         <v>284</v>
       </c>
     </row>
@@ -7476,7 +7497,7 @@
       <c r="A209">
         <v>265</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="3" t="s">
         <v>285</v>
       </c>
       <c r="C209" t="s">
@@ -7494,7 +7515,7 @@
       <c r="G209">
         <v>0</v>
       </c>
-      <c r="H209" s="1" t="s">
+      <c r="H209" s="2" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7502,7 +7523,7 @@
       <c r="A210">
         <v>266</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="3" t="s">
         <v>287</v>
       </c>
       <c r="C210" t="s">
@@ -7520,7 +7541,7 @@
       <c r="G210">
         <v>0</v>
       </c>
-      <c r="H210" s="1" t="s">
+      <c r="H210" s="2" t="s">
         <v>288</v>
       </c>
     </row>
@@ -7528,7 +7549,7 @@
       <c r="A211">
         <v>267</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C211" t="s">
@@ -7546,7 +7567,7 @@
       <c r="G211">
         <v>0</v>
       </c>
-      <c r="H211" s="1" t="s">
+      <c r="H211" s="2" t="s">
         <v>289</v>
       </c>
     </row>
@@ -7554,7 +7575,7 @@
       <c r="A212">
         <v>268</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C212" t="s">
@@ -7572,7 +7593,7 @@
       <c r="G212">
         <v>0</v>
       </c>
-      <c r="H212" s="1" t="s">
+      <c r="H212" s="2" t="s">
         <v>291</v>
       </c>
     </row>
@@ -7580,7 +7601,7 @@
       <c r="A213">
         <v>269</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="3" t="s">
         <v>292</v>
       </c>
       <c r="C213" t="s">
@@ -7598,7 +7619,7 @@
       <c r="G213">
         <v>0</v>
       </c>
-      <c r="H213" s="1" t="s">
+      <c r="H213" s="2" t="s">
         <v>293</v>
       </c>
     </row>
@@ -7606,7 +7627,7 @@
       <c r="A214">
         <v>270</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="3" t="s">
         <v>294</v>
       </c>
       <c r="C214" t="s">
@@ -7624,7 +7645,7 @@
       <c r="G214">
         <v>0</v>
       </c>
-      <c r="H214" s="1" t="s">
+      <c r="H214" s="2" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7632,7 +7653,7 @@
       <c r="A215">
         <v>271</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="3" t="s">
         <v>296</v>
       </c>
       <c r="C215" t="s">
@@ -7650,7 +7671,7 @@
       <c r="G215">
         <v>0</v>
       </c>
-      <c r="H215" s="1" t="s">
+      <c r="H215" s="2" t="s">
         <v>297</v>
       </c>
     </row>
@@ -7658,7 +7679,7 @@
       <c r="A216">
         <v>272</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="3" t="s">
         <v>298</v>
       </c>
       <c r="C216" t="s">
@@ -7676,7 +7697,7 @@
       <c r="G216">
         <v>0</v>
       </c>
-      <c r="H216" s="1" t="s">
+      <c r="H216" s="2" t="s">
         <v>299</v>
       </c>
     </row>
@@ -7684,7 +7705,7 @@
       <c r="A217">
         <v>273</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" s="3" t="s">
         <v>300</v>
       </c>
       <c r="C217" t="s">
@@ -7702,7 +7723,7 @@
       <c r="G217">
         <v>0</v>
       </c>
-      <c r="H217" s="1" t="s">
+      <c r="H217" s="2" t="s">
         <v>301</v>
       </c>
     </row>
@@ -7710,7 +7731,7 @@
       <c r="A218">
         <v>274</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="3" t="s">
         <v>302</v>
       </c>
       <c r="C218" t="s">
@@ -7728,7 +7749,7 @@
       <c r="G218">
         <v>0</v>
       </c>
-      <c r="H218" s="1" t="s">
+      <c r="H218" s="2" t="s">
         <v>303</v>
       </c>
     </row>
@@ -7736,7 +7757,7 @@
       <c r="A219">
         <v>275</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="3" t="s">
         <v>304</v>
       </c>
       <c r="C219" t="s">
@@ -7754,7 +7775,7 @@
       <c r="G219">
         <v>0</v>
       </c>
-      <c r="H219" s="1" t="s">
+      <c r="H219" s="2" t="s">
         <v>305</v>
       </c>
     </row>
@@ -7762,7 +7783,7 @@
       <c r="A220">
         <v>276</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C220" t="s">
@@ -7780,7 +7801,7 @@
       <c r="G220">
         <v>0</v>
       </c>
-      <c r="H220" s="1" t="s">
+      <c r="H220" s="2" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7788,7 +7809,7 @@
       <c r="A221">
         <v>277</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="3" t="s">
         <v>308</v>
       </c>
       <c r="C221" t="s">
@@ -7806,7 +7827,7 @@
       <c r="G221">
         <v>0</v>
       </c>
-      <c r="H221" s="1" t="s">
+      <c r="H221" s="2" t="s">
         <v>309</v>
       </c>
     </row>
@@ -7814,7 +7835,7 @@
       <c r="A222">
         <v>278</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="3" t="s">
         <v>310</v>
       </c>
       <c r="C222" t="s">
@@ -7832,7 +7853,7 @@
       <c r="G222">
         <v>0</v>
       </c>
-      <c r="H222" s="1" t="s">
+      <c r="H222" s="2" t="s">
         <v>311</v>
       </c>
     </row>
@@ -7840,7 +7861,7 @@
       <c r="A223">
         <v>279</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C223" t="s">
@@ -7858,7 +7879,7 @@
       <c r="G223">
         <v>0</v>
       </c>
-      <c r="H223" s="1" t="s">
+      <c r="H223" s="2" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7866,7 +7887,7 @@
       <c r="A224">
         <v>280</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="3" t="s">
         <v>314</v>
       </c>
       <c r="C224" t="s">
@@ -7884,7 +7905,7 @@
       <c r="G224">
         <v>1</v>
       </c>
-      <c r="H224" s="1" t="s">
+      <c r="H224" s="2" t="s">
         <v>315</v>
       </c>
     </row>
@@ -7892,7 +7913,7 @@
       <c r="A225">
         <v>281</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C225" t="s">
@@ -7910,7 +7931,7 @@
       <c r="G225">
         <v>1</v>
       </c>
-      <c r="H225" s="1" t="s">
+      <c r="H225" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -7918,7 +7939,7 @@
       <c r="A226">
         <v>282</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="3" t="s">
         <v>317</v>
       </c>
       <c r="C226" t="s">
@@ -7936,7 +7957,7 @@
       <c r="G226">
         <v>1</v>
       </c>
-      <c r="H226" s="1" t="s">
+      <c r="H226" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -7944,7 +7965,7 @@
       <c r="A227">
         <v>283</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="3" t="s">
         <v>318</v>
       </c>
       <c r="C227" t="s">
@@ -7962,7 +7983,7 @@
       <c r="G227">
         <v>1</v>
       </c>
-      <c r="H227" s="1" t="s">
+      <c r="H227" s="2" t="s">
         <v>275</v>
       </c>
     </row>
@@ -7970,7 +7991,7 @@
       <c r="A228">
         <v>284</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="3" t="s">
         <v>319</v>
       </c>
       <c r="C228" t="s">
@@ -7988,7 +8009,7 @@
       <c r="G228">
         <v>1</v>
       </c>
-      <c r="H228" s="1" t="s">
+      <c r="H228" s="2" t="s">
         <v>277</v>
       </c>
     </row>
@@ -7996,7 +8017,7 @@
       <c r="A229">
         <v>285</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" s="3" t="s">
         <v>320</v>
       </c>
       <c r="C229" t="s">
@@ -8014,7 +8035,7 @@
       <c r="G229">
         <v>1</v>
       </c>
-      <c r="H229" s="1" t="s">
+      <c r="H229" s="2" t="s">
         <v>278</v>
       </c>
     </row>
@@ -8022,7 +8043,7 @@
       <c r="A230">
         <v>286</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="3" t="s">
         <v>321</v>
       </c>
       <c r="C230" t="s">
@@ -8040,7 +8061,7 @@
       <c r="G230">
         <v>1</v>
       </c>
-      <c r="H230" s="1" t="s">
+      <c r="H230" s="2" t="s">
         <v>279</v>
       </c>
     </row>
@@ -8048,7 +8069,7 @@
       <c r="A231">
         <v>287</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="3" t="s">
         <v>322</v>
       </c>
       <c r="C231" t="s">
@@ -8066,7 +8087,7 @@
       <c r="G231">
         <v>1</v>
       </c>
-      <c r="H231" s="1" t="s">
+      <c r="H231" s="2" t="s">
         <v>281</v>
       </c>
     </row>
@@ -8074,7 +8095,7 @@
       <c r="A232">
         <v>288</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="3" t="s">
         <v>323</v>
       </c>
       <c r="C232" t="s">
@@ -8092,7 +8113,7 @@
       <c r="G232">
         <v>1</v>
       </c>
-      <c r="H232" s="1" t="s">
+      <c r="H232" s="2" t="s">
         <v>283</v>
       </c>
     </row>
@@ -8100,7 +8121,7 @@
       <c r="A233">
         <v>289</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="3" t="s">
         <v>324</v>
       </c>
       <c r="C233" t="s">
@@ -8118,7 +8139,7 @@
       <c r="G233">
         <v>1</v>
       </c>
-      <c r="H233" s="1" t="s">
+      <c r="H233" s="2" t="s">
         <v>284</v>
       </c>
     </row>
@@ -8126,7 +8147,7 @@
       <c r="A234">
         <v>290</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C234" t="s">
@@ -8144,7 +8165,7 @@
       <c r="G234">
         <v>1</v>
       </c>
-      <c r="H234" s="1" t="s">
+      <c r="H234" s="2" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8152,7 +8173,7 @@
       <c r="A235">
         <v>291</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="3" t="s">
         <v>326</v>
       </c>
       <c r="C235" t="s">
@@ -8170,7 +8191,7 @@
       <c r="G235">
         <v>1</v>
       </c>
-      <c r="H235" s="1" t="s">
+      <c r="H235" s="2" t="s">
         <v>288</v>
       </c>
     </row>
@@ -8178,7 +8199,7 @@
       <c r="A236">
         <v>292</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="3" t="s">
         <v>327</v>
       </c>
       <c r="C236" t="s">
@@ -8196,7 +8217,7 @@
       <c r="G236">
         <v>1</v>
       </c>
-      <c r="H236" s="1" t="s">
+      <c r="H236" s="2" t="s">
         <v>289</v>
       </c>
     </row>
@@ -8204,7 +8225,7 @@
       <c r="A237">
         <v>293</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="3" t="s">
         <v>328</v>
       </c>
       <c r="C237" t="s">
@@ -8222,7 +8243,7 @@
       <c r="G237">
         <v>1</v>
       </c>
-      <c r="H237" s="1" t="s">
+      <c r="H237" s="2" t="s">
         <v>291</v>
       </c>
     </row>
@@ -8230,7 +8251,7 @@
       <c r="A238">
         <v>294</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="3" t="s">
         <v>329</v>
       </c>
       <c r="C238" t="s">
@@ -8248,7 +8269,7 @@
       <c r="G238">
         <v>1</v>
       </c>
-      <c r="H238" s="1" t="s">
+      <c r="H238" s="2" t="s">
         <v>293</v>
       </c>
     </row>
@@ -8256,7 +8277,7 @@
       <c r="A239">
         <v>295</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="3" t="s">
         <v>330</v>
       </c>
       <c r="C239" t="s">
@@ -8274,7 +8295,7 @@
       <c r="G239">
         <v>1</v>
       </c>
-      <c r="H239" s="1" t="s">
+      <c r="H239" s="2" t="s">
         <v>295</v>
       </c>
     </row>
@@ -8282,7 +8303,7 @@
       <c r="A240">
         <v>296</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="3" t="s">
         <v>331</v>
       </c>
       <c r="C240" t="s">
@@ -8300,7 +8321,7 @@
       <c r="G240">
         <v>1</v>
       </c>
-      <c r="H240" s="1" t="s">
+      <c r="H240" s="2" t="s">
         <v>297</v>
       </c>
     </row>
@@ -8308,7 +8329,7 @@
       <c r="A241">
         <v>297</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="3" t="s">
         <v>332</v>
       </c>
       <c r="C241" t="s">
@@ -8326,7 +8347,7 @@
       <c r="G241">
         <v>1</v>
       </c>
-      <c r="H241" s="1" t="s">
+      <c r="H241" s="2" t="s">
         <v>299</v>
       </c>
     </row>
@@ -8334,7 +8355,7 @@
       <c r="A242">
         <v>298</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="3" t="s">
         <v>333</v>
       </c>
       <c r="C242" t="s">
@@ -8352,7 +8373,7 @@
       <c r="G242">
         <v>1</v>
       </c>
-      <c r="H242" s="1" t="s">
+      <c r="H242" s="2" t="s">
         <v>301</v>
       </c>
     </row>
@@ -8360,7 +8381,7 @@
       <c r="A243">
         <v>299</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="3" t="s">
         <v>334</v>
       </c>
       <c r="C243" t="s">
@@ -8378,7 +8399,7 @@
       <c r="G243">
         <v>1</v>
       </c>
-      <c r="H243" s="1" t="s">
+      <c r="H243" s="2" t="s">
         <v>303</v>
       </c>
     </row>
@@ -8386,7 +8407,7 @@
       <c r="A244">
         <v>300</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="3" t="s">
         <v>335</v>
       </c>
       <c r="C244" t="s">
@@ -8404,7 +8425,7 @@
       <c r="G244">
         <v>1</v>
       </c>
-      <c r="H244" s="1" t="s">
+      <c r="H244" s="2" t="s">
         <v>305</v>
       </c>
     </row>
@@ -8412,7 +8433,7 @@
       <c r="A245">
         <v>301</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" s="3" t="s">
         <v>336</v>
       </c>
       <c r="C245" t="s">
@@ -8430,7 +8451,7 @@
       <c r="G245">
         <v>1</v>
       </c>
-      <c r="H245" s="1" t="s">
+      <c r="H245" s="2" t="s">
         <v>307</v>
       </c>
     </row>
@@ -8438,7 +8459,7 @@
       <c r="A246">
         <v>302</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C246" t="s">
@@ -8456,7 +8477,7 @@
       <c r="G246">
         <v>1</v>
       </c>
-      <c r="H246" s="1" t="s">
+      <c r="H246" s="2" t="s">
         <v>309</v>
       </c>
     </row>
@@ -8464,7 +8485,7 @@
       <c r="A247">
         <v>303</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" s="3" t="s">
         <v>338</v>
       </c>
       <c r="C247" t="s">
@@ -8482,7 +8503,7 @@
       <c r="G247">
         <v>1</v>
       </c>
-      <c r="H247" s="1" t="s">
+      <c r="H247" s="2" t="s">
         <v>311</v>
       </c>
     </row>
@@ -8490,7 +8511,7 @@
       <c r="A248">
         <v>304</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B248" s="3" t="s">
         <v>339</v>
       </c>
       <c r="C248" t="s">
@@ -8508,7 +8529,7 @@
       <c r="G248">
         <v>1</v>
       </c>
-      <c r="H248" s="1" t="s">
+      <c r="H248" s="2" t="s">
         <v>313</v>
       </c>
     </row>
@@ -8516,7 +8537,7 @@
       <c r="A249">
         <v>305</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B249" s="3" t="s">
         <v>340</v>
       </c>
       <c r="C249" t="s">
@@ -8534,7 +8555,7 @@
       <c r="G249">
         <v>36</v>
       </c>
-      <c r="H249" s="1" t="s">
+      <c r="H249" s="2" t="s">
         <v>315</v>
       </c>
     </row>
@@ -8542,7 +8563,7 @@
       <c r="A250">
         <v>306</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C250" t="s">
@@ -8560,7 +8581,7 @@
       <c r="G250">
         <v>36</v>
       </c>
-      <c r="H250" s="1" t="s">
+      <c r="H250" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -8568,7 +8589,7 @@
       <c r="A251">
         <v>307</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="3" t="s">
         <v>342</v>
       </c>
       <c r="C251" t="s">
@@ -8586,7 +8607,7 @@
       <c r="G251">
         <v>36</v>
       </c>
-      <c r="H251" s="1" t="s">
+      <c r="H251" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -8594,7 +8615,7 @@
       <c r="A252">
         <v>308</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B252" s="3" t="s">
         <v>343</v>
       </c>
       <c r="C252" t="s">
@@ -8612,7 +8633,7 @@
       <c r="G252">
         <v>36</v>
       </c>
-      <c r="H252" s="1" t="s">
+      <c r="H252" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -8620,7 +8641,7 @@
       <c r="A253">
         <v>309</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" s="3" t="s">
         <v>344</v>
       </c>
       <c r="C253" t="s">
@@ -8638,7 +8659,7 @@
       <c r="G253">
         <v>36</v>
       </c>
-      <c r="H253" s="1" t="s">
+      <c r="H253" s="2" t="s">
         <v>275</v>
       </c>
     </row>
@@ -8646,7 +8667,7 @@
       <c r="A254">
         <v>310</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B254" s="3" t="s">
         <v>345</v>
       </c>
       <c r="C254" t="s">
@@ -8664,7 +8685,7 @@
       <c r="G254">
         <v>36</v>
       </c>
-      <c r="H254" s="1" t="s">
+      <c r="H254" s="2" t="s">
         <v>277</v>
       </c>
     </row>
@@ -8672,7 +8693,7 @@
       <c r="A255">
         <v>311</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C255" t="s">
@@ -8690,7 +8711,7 @@
       <c r="G255">
         <v>36</v>
       </c>
-      <c r="H255" s="1" t="s">
+      <c r="H255" s="2" t="s">
         <v>278</v>
       </c>
     </row>
@@ -8698,7 +8719,7 @@
       <c r="A256">
         <v>312</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="3" t="s">
         <v>347</v>
       </c>
       <c r="C256" t="s">
@@ -8716,7 +8737,7 @@
       <c r="G256">
         <v>36</v>
       </c>
-      <c r="H256" s="1" t="s">
+      <c r="H256" s="2" t="s">
         <v>279</v>
       </c>
     </row>
@@ -8724,7 +8745,7 @@
       <c r="A257">
         <v>313</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" s="3" t="s">
         <v>348</v>
       </c>
       <c r="C257" t="s">
@@ -8742,7 +8763,7 @@
       <c r="G257">
         <v>36</v>
       </c>
-      <c r="H257" s="1" t="s">
+      <c r="H257" s="2" t="s">
         <v>281</v>
       </c>
     </row>
@@ -8750,7 +8771,7 @@
       <c r="A258">
         <v>314</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" s="3" t="s">
         <v>349</v>
       </c>
       <c r="C258" t="s">
@@ -8768,7 +8789,7 @@
       <c r="G258">
         <v>36</v>
       </c>
-      <c r="H258" s="1" t="s">
+      <c r="H258" s="2" t="s">
         <v>283</v>
       </c>
     </row>
@@ -8776,7 +8797,7 @@
       <c r="A259">
         <v>315</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C259" t="s">
@@ -8794,7 +8815,7 @@
       <c r="G259">
         <v>36</v>
       </c>
-      <c r="H259" s="1" t="s">
+      <c r="H259" s="2" t="s">
         <v>286</v>
       </c>
     </row>
@@ -8802,7 +8823,7 @@
       <c r="A260">
         <v>316</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="3" t="s">
         <v>351</v>
       </c>
       <c r="C260" t="s">
@@ -8820,7 +8841,7 @@
       <c r="G260">
         <v>36</v>
       </c>
-      <c r="H260" s="1" t="s">
+      <c r="H260" s="2" t="s">
         <v>288</v>
       </c>
     </row>
@@ -8828,7 +8849,7 @@
       <c r="A261">
         <v>317</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B261" s="3" t="s">
         <v>352</v>
       </c>
       <c r="C261" t="s">
@@ -8846,7 +8867,7 @@
       <c r="G261">
         <v>36</v>
       </c>
-      <c r="H261" s="1" t="s">
+      <c r="H261" s="2" t="s">
         <v>289</v>
       </c>
     </row>
@@ -8854,7 +8875,7 @@
       <c r="A262">
         <v>318</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B262" s="3" t="s">
         <v>353</v>
       </c>
       <c r="C262" t="s">
@@ -8872,7 +8893,7 @@
       <c r="G262">
         <v>36</v>
       </c>
-      <c r="H262" s="1" t="s">
+      <c r="H262" s="2" t="s">
         <v>291</v>
       </c>
     </row>
@@ -8880,7 +8901,7 @@
       <c r="A263">
         <v>319</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="3" t="s">
         <v>354</v>
       </c>
       <c r="C263" t="s">
@@ -8898,7 +8919,7 @@
       <c r="G263">
         <v>36</v>
       </c>
-      <c r="H263" s="1" t="s">
+      <c r="H263" s="2" t="s">
         <v>293</v>
       </c>
     </row>
@@ -8906,7 +8927,7 @@
       <c r="A264">
         <v>320</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="3" t="s">
         <v>355</v>
       </c>
       <c r="C264" t="s">
@@ -8924,7 +8945,7 @@
       <c r="G264">
         <v>36</v>
       </c>
-      <c r="H264" s="1" t="s">
+      <c r="H264" s="2" t="s">
         <v>295</v>
       </c>
     </row>
@@ -8932,7 +8953,7 @@
       <c r="A265">
         <v>321</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="B265" s="3" t="s">
         <v>356</v>
       </c>
       <c r="C265" t="s">
@@ -8950,7 +8971,7 @@
       <c r="G265">
         <v>36</v>
       </c>
-      <c r="H265" s="1" t="s">
+      <c r="H265" s="2" t="s">
         <v>297</v>
       </c>
     </row>
@@ -8958,7 +8979,7 @@
       <c r="A266">
         <v>322</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B266" s="3" t="s">
         <v>357</v>
       </c>
       <c r="C266" t="s">
@@ -8976,7 +8997,7 @@
       <c r="G266">
         <v>36</v>
       </c>
-      <c r="H266" s="1" t="s">
+      <c r="H266" s="2" t="s">
         <v>299</v>
       </c>
     </row>
@@ -8984,7 +9005,7 @@
       <c r="A267">
         <v>323</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B267" s="3" t="s">
         <v>358</v>
       </c>
       <c r="C267" t="s">
@@ -9002,7 +9023,7 @@
       <c r="G267">
         <v>36</v>
       </c>
-      <c r="H267" s="1" t="s">
+      <c r="H267" s="2" t="s">
         <v>301</v>
       </c>
     </row>
@@ -9010,7 +9031,7 @@
       <c r="A268">
         <v>324</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B268" s="3" t="s">
         <v>359</v>
       </c>
       <c r="C268" t="s">
@@ -9028,7 +9049,7 @@
       <c r="G268">
         <v>36</v>
       </c>
-      <c r="H268" s="1" t="s">
+      <c r="H268" s="2" t="s">
         <v>303</v>
       </c>
     </row>
@@ -9036,7 +9057,7 @@
       <c r="A269">
         <v>325</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C269" t="s">
@@ -9054,7 +9075,7 @@
       <c r="G269">
         <v>36</v>
       </c>
-      <c r="H269" s="1" t="s">
+      <c r="H269" s="2" t="s">
         <v>305</v>
       </c>
     </row>
@@ -9062,7 +9083,7 @@
       <c r="A270">
         <v>326</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B270" s="3" t="s">
         <v>361</v>
       </c>
       <c r="C270" t="s">
@@ -9080,7 +9101,7 @@
       <c r="G270">
         <v>36</v>
       </c>
-      <c r="H270" s="1" t="s">
+      <c r="H270" s="2" t="s">
         <v>307</v>
       </c>
     </row>
@@ -9088,7 +9109,7 @@
       <c r="A271">
         <v>327</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B271" s="3" t="s">
         <v>362</v>
       </c>
       <c r="C271" t="s">
@@ -9106,7 +9127,7 @@
       <c r="G271">
         <v>36</v>
       </c>
-      <c r="H271" s="1" t="s">
+      <c r="H271" s="2" t="s">
         <v>309</v>
       </c>
     </row>
@@ -9114,7 +9135,7 @@
       <c r="A272">
         <v>328</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" s="3" t="s">
         <v>363</v>
       </c>
       <c r="C272" t="s">
@@ -9132,7 +9153,7 @@
       <c r="G272">
         <v>36</v>
       </c>
-      <c r="H272" s="1" t="s">
+      <c r="H272" s="2" t="s">
         <v>311</v>
       </c>
     </row>
@@ -9140,7 +9161,7 @@
       <c r="A273">
         <v>329</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B273" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C273" t="s">
@@ -9158,8 +9179,86 @@
       <c r="G273">
         <v>36</v>
       </c>
-      <c r="H273" s="1" t="s">
+      <c r="H273" s="2" t="s">
         <v>313</v>
+      </c>
+    </row>
+    <row r="274" s="1" customFormat="1" spans="1:8">
+      <c r="A274">
+        <v>330</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D274" s="1">
+        <v>50</v>
+      </c>
+      <c r="E274" s="1">
+        <v>5</v>
+      </c>
+      <c r="F274" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G274" s="1">
+        <v>0</v>
+      </c>
+      <c r="H274" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="275" s="1" customFormat="1" spans="1:8">
+      <c r="A275">
+        <v>331</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D275" s="1">
+        <v>50</v>
+      </c>
+      <c r="E275" s="1">
+        <v>5</v>
+      </c>
+      <c r="F275" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G275" s="1">
+        <v>0</v>
+      </c>
+      <c r="H275" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="276" customFormat="1" spans="1:8">
+      <c r="A276">
+        <v>332</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D276" s="1">
+        <v>50</v>
+      </c>
+      <c r="E276" s="1">
+        <v>5</v>
+      </c>
+      <c r="F276" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G276" s="1">
+        <v>0</v>
+      </c>
+      <c r="H276" s="7" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/Assets/Mods/PLUS/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/战斗.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="378">
   <si>
     <t>Jyx2Configs.Jyx2ConfigBattle</t>
   </si>
@@ -793,7 +793,7 @@
     <t>令狐战风清扬</t>
   </si>
   <si>
-    <t>陌生人</t>
+    <t>陌生人甲</t>
   </si>
   <si>
     <t>Jyx2Battle_170</t>
@@ -802,22 +802,43 @@
     <t>320</t>
   </si>
   <si>
+    <t>陌生人乙</t>
+  </si>
+  <si>
     <t>321</t>
   </si>
   <si>
+    <t>陌生人丙</t>
+  </si>
+  <si>
     <t>322</t>
   </si>
   <si>
+    <t>陌生人丁</t>
+  </si>
+  <si>
     <t>323</t>
   </si>
   <si>
+    <t>陌生人戊</t>
+  </si>
+  <si>
     <t>324</t>
   </si>
   <si>
+    <t>陌生人己</t>
+  </si>
+  <si>
     <t>325</t>
   </si>
   <si>
+    <t>陌生人庚</t>
+  </si>
+  <si>
     <t>327</t>
+  </si>
+  <si>
+    <t>陌生人辛</t>
   </si>
   <si>
     <t>328</t>
@@ -2094,14 +2115,14 @@
   <dimension ref="A1:H276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A273" sqref="A273:A276"/>
+      <selection pane="bottomLeft" activeCell="A198" sqref="$A191:$XFD198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="13.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="20.8703703703704" customWidth="1"/>
     <col min="6" max="6" width="9.13888888888889" customWidth="1"/>
     <col min="8" max="8" width="91" style="2" customWidth="1"/>
   </cols>
@@ -7056,7 +7077,7 @@
         <v>248</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C192" t="s">
         <v>260</v>
@@ -7074,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7082,7 +7103,7 @@
         <v>249</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C193" t="s">
         <v>260</v>
@@ -7100,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7108,7 +7129,7 @@
         <v>250</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C194" t="s">
         <v>260</v>
@@ -7126,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7134,7 +7155,7 @@
         <v>251</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C195" t="s">
         <v>260</v>
@@ -7152,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7160,7 +7181,7 @@
         <v>252</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C196" t="s">
         <v>260</v>
@@ -7178,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7186,7 +7207,7 @@
         <v>253</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C197" t="s">
         <v>260</v>
@@ -7204,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7212,7 +7233,7 @@
         <v>254</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C198" t="s">
         <v>260</v>
@@ -7230,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7256,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7264,7 +7285,7 @@
         <v>256</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C200" t="s">
         <v>260</v>
@@ -7282,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7290,7 +7311,7 @@
         <v>257</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C201" t="s">
         <v>260</v>
@@ -7308,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7316,7 +7337,7 @@
         <v>258</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C202" t="s">
         <v>260</v>
@@ -7334,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7342,7 +7363,7 @@
         <v>259</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C203" t="s">
         <v>260</v>
@@ -7360,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7386,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7412,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7420,7 +7441,7 @@
         <v>262</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C206" t="s">
         <v>260</v>
@@ -7438,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7446,7 +7467,7 @@
         <v>263</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C207" t="s">
         <v>260</v>
@@ -7464,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7490,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7498,7 +7519,7 @@
         <v>265</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C209" t="s">
         <v>260</v>
@@ -7516,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7524,7 +7545,7 @@
         <v>266</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C210" t="s">
         <v>260</v>
@@ -7542,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7568,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7576,7 +7597,7 @@
         <v>268</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C212" t="s">
         <v>260</v>
@@ -7594,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7602,7 +7623,7 @@
         <v>269</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C213" t="s">
         <v>260</v>
@@ -7620,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7628,7 +7649,7 @@
         <v>270</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C214" t="s">
         <v>260</v>
@@ -7646,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7654,7 +7675,7 @@
         <v>271</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C215" t="s">
         <v>260</v>
@@ -7672,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7680,7 +7701,7 @@
         <v>272</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C216" t="s">
         <v>260</v>
@@ -7698,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7706,7 +7727,7 @@
         <v>273</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C217" t="s">
         <v>260</v>
@@ -7724,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7732,7 +7753,7 @@
         <v>274</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C218" t="s">
         <v>260</v>
@@ -7750,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7758,7 +7779,7 @@
         <v>275</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C219" t="s">
         <v>260</v>
@@ -7776,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7784,7 +7805,7 @@
         <v>276</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C220" t="s">
         <v>260</v>
@@ -7802,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7810,7 +7831,7 @@
         <v>277</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C221" t="s">
         <v>260</v>
@@ -7828,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7836,7 +7857,7 @@
         <v>278</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C222" t="s">
         <v>260</v>
@@ -7854,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7862,7 +7883,7 @@
         <v>279</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C223" t="s">
         <v>260</v>
@@ -7880,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7888,7 +7909,7 @@
         <v>280</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C224" t="s">
         <v>18</v>
@@ -7906,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7914,7 +7935,7 @@
         <v>281</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C225" t="s">
         <v>18</v>
@@ -7932,7 +7953,7 @@
         <v>1</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7940,7 +7961,7 @@
         <v>282</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C226" t="s">
         <v>18</v>
@@ -7958,7 +7979,7 @@
         <v>1</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7966,7 +7987,7 @@
         <v>283</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C227" t="s">
         <v>18</v>
@@ -7984,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7992,7 +8013,7 @@
         <v>284</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C228" t="s">
         <v>18</v>
@@ -8010,7 +8031,7 @@
         <v>1</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8018,7 +8039,7 @@
         <v>285</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C229" t="s">
         <v>18</v>
@@ -8036,7 +8057,7 @@
         <v>1</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8044,7 +8065,7 @@
         <v>286</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C230" t="s">
         <v>18</v>
@@ -8062,7 +8083,7 @@
         <v>1</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8070,7 +8091,7 @@
         <v>287</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C231" t="s">
         <v>18</v>
@@ -8088,7 +8109,7 @@
         <v>1</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8096,7 +8117,7 @@
         <v>288</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C232" t="s">
         <v>18</v>
@@ -8114,7 +8135,7 @@
         <v>1</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8122,7 +8143,7 @@
         <v>289</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C233" t="s">
         <v>18</v>
@@ -8140,7 +8161,7 @@
         <v>1</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8148,7 +8169,7 @@
         <v>290</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C234" t="s">
         <v>18</v>
@@ -8166,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8174,7 +8195,7 @@
         <v>291</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C235" t="s">
         <v>18</v>
@@ -8192,7 +8213,7 @@
         <v>1</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8200,7 +8221,7 @@
         <v>292</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C236" t="s">
         <v>18</v>
@@ -8218,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8226,7 +8247,7 @@
         <v>293</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C237" t="s">
         <v>18</v>
@@ -8244,7 +8265,7 @@
         <v>1</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8252,7 +8273,7 @@
         <v>294</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C238" t="s">
         <v>18</v>
@@ -8270,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8278,7 +8299,7 @@
         <v>295</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C239" t="s">
         <v>18</v>
@@ -8296,7 +8317,7 @@
         <v>1</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8304,7 +8325,7 @@
         <v>296</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C240" t="s">
         <v>18</v>
@@ -8322,7 +8343,7 @@
         <v>1</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8330,7 +8351,7 @@
         <v>297</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C241" t="s">
         <v>18</v>
@@ -8348,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8356,7 +8377,7 @@
         <v>298</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C242" t="s">
         <v>18</v>
@@ -8374,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8382,7 +8403,7 @@
         <v>299</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C243" t="s">
         <v>18</v>
@@ -8400,7 +8421,7 @@
         <v>1</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8408,7 +8429,7 @@
         <v>300</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C244" t="s">
         <v>18</v>
@@ -8426,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8434,7 +8455,7 @@
         <v>301</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C245" t="s">
         <v>18</v>
@@ -8452,7 +8473,7 @@
         <v>1</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8460,7 +8481,7 @@
         <v>302</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C246" t="s">
         <v>18</v>
@@ -8478,7 +8499,7 @@
         <v>1</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8486,7 +8507,7 @@
         <v>303</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C247" t="s">
         <v>18</v>
@@ -8504,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8512,7 +8533,7 @@
         <v>304</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C248" t="s">
         <v>18</v>
@@ -8530,7 +8551,7 @@
         <v>1</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8538,7 +8559,7 @@
         <v>305</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C249" t="s">
         <v>38</v>
@@ -8556,7 +8577,7 @@
         <v>36</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8564,7 +8585,7 @@
         <v>306</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C250" t="s">
         <v>38</v>
@@ -8582,7 +8603,7 @@
         <v>36</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8590,7 +8611,7 @@
         <v>307</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C251" t="s">
         <v>38</v>
@@ -8608,7 +8629,7 @@
         <v>36</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8616,7 +8637,7 @@
         <v>308</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C252" t="s">
         <v>38</v>
@@ -8634,7 +8655,7 @@
         <v>36</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8642,7 +8663,7 @@
         <v>309</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C253" t="s">
         <v>38</v>
@@ -8660,7 +8681,7 @@
         <v>36</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8668,7 +8689,7 @@
         <v>310</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C254" t="s">
         <v>38</v>
@@ -8686,7 +8707,7 @@
         <v>36</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8694,7 +8715,7 @@
         <v>311</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C255" t="s">
         <v>38</v>
@@ -8712,7 +8733,7 @@
         <v>36</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8720,7 +8741,7 @@
         <v>312</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C256" t="s">
         <v>38</v>
@@ -8738,7 +8759,7 @@
         <v>36</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8746,7 +8767,7 @@
         <v>313</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C257" t="s">
         <v>38</v>
@@ -8764,7 +8785,7 @@
         <v>36</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8772,7 +8793,7 @@
         <v>314</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C258" t="s">
         <v>38</v>
@@ -8790,7 +8811,7 @@
         <v>36</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8798,7 +8819,7 @@
         <v>315</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C259" t="s">
         <v>38</v>
@@ -8816,7 +8837,7 @@
         <v>36</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8824,7 +8845,7 @@
         <v>316</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C260" t="s">
         <v>38</v>
@@ -8842,7 +8863,7 @@
         <v>36</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8850,7 +8871,7 @@
         <v>317</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C261" t="s">
         <v>38</v>
@@ -8868,7 +8889,7 @@
         <v>36</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8876,7 +8897,7 @@
         <v>318</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C262" t="s">
         <v>38</v>
@@ -8894,7 +8915,7 @@
         <v>36</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8902,7 +8923,7 @@
         <v>319</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C263" t="s">
         <v>38</v>
@@ -8920,7 +8941,7 @@
         <v>36</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8928,7 +8949,7 @@
         <v>320</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C264" t="s">
         <v>38</v>
@@ -8946,7 +8967,7 @@
         <v>36</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8954,7 +8975,7 @@
         <v>321</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C265" t="s">
         <v>38</v>
@@ -8972,7 +8993,7 @@
         <v>36</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8980,7 +9001,7 @@
         <v>322</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C266" t="s">
         <v>38</v>
@@ -8998,7 +9019,7 @@
         <v>36</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9006,7 +9027,7 @@
         <v>323</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C267" t="s">
         <v>38</v>
@@ -9024,7 +9045,7 @@
         <v>36</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9032,7 +9053,7 @@
         <v>324</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C268" t="s">
         <v>38</v>
@@ -9050,7 +9071,7 @@
         <v>36</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9058,7 +9079,7 @@
         <v>325</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C269" t="s">
         <v>38</v>
@@ -9076,7 +9097,7 @@
         <v>36</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9084,7 +9105,7 @@
         <v>326</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C270" t="s">
         <v>38</v>
@@ -9102,7 +9123,7 @@
         <v>36</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9110,7 +9131,7 @@
         <v>327</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C271" t="s">
         <v>38</v>
@@ -9128,7 +9149,7 @@
         <v>36</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9136,7 +9157,7 @@
         <v>328</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C272" t="s">
         <v>38</v>
@@ -9154,7 +9175,7 @@
         <v>36</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9162,7 +9183,7 @@
         <v>329</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C273" t="s">
         <v>38</v>
@@ -9180,7 +9201,7 @@
         <v>36</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="274" s="1" customFormat="1" spans="1:8">
@@ -9188,7 +9209,7 @@
         <v>330</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>260</v>
@@ -9206,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="H274" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="275" s="1" customFormat="1" spans="1:8">
@@ -9214,7 +9235,7 @@
         <v>331</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>260</v>
@@ -9232,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="H275" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="276" customFormat="1" spans="1:8">
@@ -9240,7 +9261,7 @@
         <v>332</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>260</v>
@@ -9258,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="H276" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/Assets/Mods/PLUS/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/战斗.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="380">
   <si>
     <t>Jyx2Configs.Jyx2ConfigBattle</t>
   </si>
@@ -1148,6 +1148,12 @@
   </si>
   <si>
     <t>331</t>
+  </si>
+  <si>
+    <t>小白</t>
+  </si>
+  <si>
+    <t>332</t>
   </si>
 </sst>
 </file>
@@ -2112,12 +2118,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H276"/>
+  <dimension ref="A1:H277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A198" sqref="$A191:$XFD198"/>
+      <selection pane="bottomLeft" activeCell="F279" sqref="F279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelCol="7"/>
@@ -9282,6 +9288,32 @@
         <v>377</v>
       </c>
     </row>
+    <row r="277" spans="1:8">
+      <c r="A277">
+        <v>333</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C277" t="s">
+        <v>260</v>
+      </c>
+      <c r="D277">
+        <v>50</v>
+      </c>
+      <c r="E277">
+        <v>5</v>
+      </c>
+      <c r="F277">
+        <v>-1</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/jyx2/Assets/Mods/PLUS/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/战斗.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="382">
   <si>
     <t>Jyx2Configs.Jyx2ConfigBattle</t>
   </si>
@@ -1154,6 +1154,12 @@
   </si>
   <si>
     <t>332</t>
+  </si>
+  <si>
+    <t>战岳不群</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -2118,12 +2124,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H277"/>
+  <dimension ref="A1:H278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F279" sqref="F279"/>
+      <selection pane="bottomLeft" activeCell="C283" sqref="C283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelCol="7"/>
@@ -9314,6 +9320,32 @@
         <v>379</v>
       </c>
     </row>
+    <row r="278" spans="1:8">
+      <c r="A278">
+        <v>334</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C278" t="s">
+        <v>62</v>
+      </c>
+      <c r="D278">
+        <v>1500</v>
+      </c>
+      <c r="E278">
+        <v>5</v>
+      </c>
+      <c r="F278">
+        <v>-1</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/jyx2/Assets/Mods/PLUS/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/战斗.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="403">
   <si>
     <t>Jyx2Configs.Jyx2ConfigBattle</t>
   </si>
@@ -1132,34 +1132,97 @@
     <t>林战王语嫣</t>
   </si>
   <si>
+    <t>峨嵋精英</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>丐帮精英</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>少林精英</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>小白</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>战岳不群</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>神龙精英</t>
+  </si>
+  <si>
+    <t>武当精英</t>
+  </si>
+  <si>
+    <t>崆峒精英</t>
+  </si>
+  <si>
+    <t>华山精英</t>
+  </si>
+  <si>
+    <t>衡山精英</t>
+  </si>
+  <si>
+    <t>嵩山精英</t>
+  </si>
+  <si>
+    <t>泰山精英</t>
+  </si>
+  <si>
+    <t>青城精英</t>
+  </si>
+  <si>
+    <t>五毒精英</t>
+  </si>
+  <si>
+    <t>日月精英</t>
+  </si>
+  <si>
+    <t>雪山精英</t>
+  </si>
+  <si>
+    <t>番僧精英</t>
+  </si>
+  <si>
+    <t>星宿精英</t>
+  </si>
+  <si>
+    <t>铁掌精英</t>
+  </si>
+  <si>
+    <t>全真精英</t>
+  </si>
+  <si>
+    <t>明教精英</t>
+  </si>
+  <si>
+    <t>翡冷翠</t>
+  </si>
+  <si>
+    <t>侠客精英</t>
+  </si>
+  <si>
     <t>恒山精英</t>
   </si>
   <si>
     <t>329</t>
   </si>
   <si>
-    <t>峨嵋精英</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>丐帮精英</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>小白</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>战岳不群</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>昆仑精英</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1235,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1189,6 +1252,18 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1646,52 +1721,46 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1700,98 +1769,104 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1800,6 +1875,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2124,12 +2203,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H278"/>
+  <dimension ref="A1:H298"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C283" sqref="C283"/>
+      <selection pane="bottomLeft" activeCell="A296" sqref="$A296:$XFD296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelCol="7"/>
@@ -9227,7 +9306,7 @@
         <v>260</v>
       </c>
       <c r="D274" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E274" s="1">
         <v>5</v>
@@ -9242,18 +9321,18 @@
         <v>373</v>
       </c>
     </row>
-    <row r="275" s="1" customFormat="1" spans="1:8">
+    <row r="275" customFormat="1" spans="1:8">
       <c r="A275">
         <v>331</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="B275" s="3" t="s">
         <v>374</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D275" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E275" s="1">
         <v>5</v>
@@ -9272,14 +9351,14 @@
       <c r="A276">
         <v>332</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="8" t="s">
         <v>376</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D276" s="1">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E276" s="1">
         <v>5</v>
@@ -9344,6 +9423,526 @@
       </c>
       <c r="H278" s="2" t="s">
         <v>381</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279">
+        <v>335</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D279" s="1">
+        <v>450</v>
+      </c>
+      <c r="E279" s="1">
+        <v>5</v>
+      </c>
+      <c r="F279" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G279" s="1">
+        <v>0</v>
+      </c>
+      <c r="H279" s="9">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280">
+        <v>336</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D280" s="1">
+        <v>450</v>
+      </c>
+      <c r="E280" s="1">
+        <v>5</v>
+      </c>
+      <c r="F280" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G280" s="1">
+        <v>0</v>
+      </c>
+      <c r="H280" s="9">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281">
+        <v>337</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D281" s="1">
+        <v>450</v>
+      </c>
+      <c r="E281" s="1">
+        <v>5</v>
+      </c>
+      <c r="F281" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G281" s="1">
+        <v>0</v>
+      </c>
+      <c r="H281" s="9">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282">
+        <v>338</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D282" s="1">
+        <v>450</v>
+      </c>
+      <c r="E282" s="1">
+        <v>5</v>
+      </c>
+      <c r="F282" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G282" s="1">
+        <v>0</v>
+      </c>
+      <c r="H282" s="9">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283">
+        <v>339</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D283" s="1">
+        <v>450</v>
+      </c>
+      <c r="E283" s="1">
+        <v>5</v>
+      </c>
+      <c r="F283" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G283" s="1">
+        <v>0</v>
+      </c>
+      <c r="H283" s="9">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284">
+        <v>340</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D284" s="1">
+        <v>450</v>
+      </c>
+      <c r="E284" s="1">
+        <v>5</v>
+      </c>
+      <c r="F284" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G284" s="1">
+        <v>0</v>
+      </c>
+      <c r="H284" s="9">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285">
+        <v>341</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D285" s="1">
+        <v>450</v>
+      </c>
+      <c r="E285" s="1">
+        <v>5</v>
+      </c>
+      <c r="F285" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G285" s="1">
+        <v>0</v>
+      </c>
+      <c r="H285" s="9">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286">
+        <v>342</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D286" s="1">
+        <v>450</v>
+      </c>
+      <c r="E286" s="1">
+        <v>5</v>
+      </c>
+      <c r="F286" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G286" s="1">
+        <v>0</v>
+      </c>
+      <c r="H286" s="9">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287">
+        <v>343</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D287" s="1">
+        <v>450</v>
+      </c>
+      <c r="E287" s="1">
+        <v>5</v>
+      </c>
+      <c r="F287" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G287" s="1">
+        <v>0</v>
+      </c>
+      <c r="H287" s="9">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288">
+        <v>344</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D288" s="1">
+        <v>450</v>
+      </c>
+      <c r="E288" s="1">
+        <v>5</v>
+      </c>
+      <c r="F288" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G288" s="1">
+        <v>0</v>
+      </c>
+      <c r="H288" s="9">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289">
+        <v>345</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D289" s="1">
+        <v>450</v>
+      </c>
+      <c r="E289" s="1">
+        <v>5</v>
+      </c>
+      <c r="F289" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G289" s="1">
+        <v>0</v>
+      </c>
+      <c r="H289" s="9">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290">
+        <v>346</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D290" s="1">
+        <v>450</v>
+      </c>
+      <c r="E290" s="1">
+        <v>5</v>
+      </c>
+      <c r="F290" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G290" s="1">
+        <v>0</v>
+      </c>
+      <c r="H290" s="9">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291">
+        <v>347</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D291" s="1">
+        <v>450</v>
+      </c>
+      <c r="E291" s="1">
+        <v>5</v>
+      </c>
+      <c r="F291" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G291" s="1">
+        <v>0</v>
+      </c>
+      <c r="H291" s="9">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292">
+        <v>348</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D292" s="1">
+        <v>450</v>
+      </c>
+      <c r="E292" s="1">
+        <v>5</v>
+      </c>
+      <c r="F292" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G292" s="1">
+        <v>0</v>
+      </c>
+      <c r="H292" s="9">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293">
+        <v>349</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D293" s="1">
+        <v>450</v>
+      </c>
+      <c r="E293" s="1">
+        <v>5</v>
+      </c>
+      <c r="F293" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G293" s="1">
+        <v>0</v>
+      </c>
+      <c r="H293" s="9">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294">
+        <v>350</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D294" s="1">
+        <v>450</v>
+      </c>
+      <c r="E294" s="1">
+        <v>5</v>
+      </c>
+      <c r="F294" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G294" s="1">
+        <v>0</v>
+      </c>
+      <c r="H294" s="9">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="295" s="1" customFormat="1" spans="1:8">
+      <c r="A295">
+        <v>351</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D295" s="1">
+        <v>450</v>
+      </c>
+      <c r="E295" s="1">
+        <v>5</v>
+      </c>
+      <c r="F295" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G295" s="1">
+        <v>0</v>
+      </c>
+      <c r="H295" s="9">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296">
+        <v>352</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D296" s="1">
+        <v>450</v>
+      </c>
+      <c r="E296" s="1">
+        <v>5</v>
+      </c>
+      <c r="F296" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G296" s="1">
+        <v>0</v>
+      </c>
+      <c r="H296" s="9">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="297" s="1" customFormat="1" spans="1:8">
+      <c r="A297">
+        <v>353</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D297" s="1">
+        <v>450</v>
+      </c>
+      <c r="E297" s="1">
+        <v>5</v>
+      </c>
+      <c r="F297" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G297" s="1">
+        <v>0</v>
+      </c>
+      <c r="H297" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298">
+        <v>354</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D298" s="1">
+        <v>450</v>
+      </c>
+      <c r="E298" s="1">
+        <v>5</v>
+      </c>
+      <c r="F298" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G298" s="1">
+        <v>0</v>
+      </c>
+      <c r="H298" s="9">
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/jyx2/Assets/Mods/PLUS/Configs/战斗.xlsx
+++ b/jyx2/Assets/Mods/PLUS/Configs/战斗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22943" windowHeight="9275"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="401">
   <si>
     <t>Jyx2Configs.Jyx2ConfigBattle</t>
   </si>
@@ -1132,97 +1132,91 @@
     <t>林战王语嫣</t>
   </si>
   <si>
+    <t>翡冷翠</t>
+  </si>
+  <si>
+    <t>恒山精英</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
     <t>峨嵋精英</t>
   </si>
   <si>
-    <t>330</t>
+    <t>332</t>
+  </si>
+  <si>
+    <t>小白</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>战岳不群</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>青城精英</t>
+  </si>
+  <si>
+    <t>五毒精英</t>
+  </si>
+  <si>
+    <t>雪山精英</t>
+  </si>
+  <si>
+    <t>星宿精英</t>
+  </si>
+  <si>
+    <t>泰山精英</t>
+  </si>
+  <si>
+    <t>衡山精英</t>
+  </si>
+  <si>
+    <t>神龙精英</t>
+  </si>
+  <si>
+    <t>昆仑精英</t>
+  </si>
+  <si>
+    <t>崆峒精英</t>
+  </si>
+  <si>
+    <t>武当精英</t>
+  </si>
+  <si>
+    <t>华山精英</t>
+  </si>
+  <si>
+    <t>嵩山精英</t>
+  </si>
+  <si>
+    <t>日月精英</t>
+  </si>
+  <si>
+    <t>番僧精英</t>
+  </si>
+  <si>
+    <t>铁掌精英</t>
+  </si>
+  <si>
+    <t>全真精英</t>
+  </si>
+  <si>
+    <t>明教精英</t>
+  </si>
+  <si>
+    <t>侠客精英</t>
   </si>
   <si>
     <t>丐帮精英</t>
   </si>
   <si>
-    <t>331</t>
-  </si>
-  <si>
     <t>少林精英</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>小白</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>战岳不群</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>神龙精英</t>
-  </si>
-  <si>
-    <t>武当精英</t>
-  </si>
-  <si>
-    <t>崆峒精英</t>
-  </si>
-  <si>
-    <t>华山精英</t>
-  </si>
-  <si>
-    <t>衡山精英</t>
-  </si>
-  <si>
-    <t>嵩山精英</t>
-  </si>
-  <si>
-    <t>泰山精英</t>
-  </si>
-  <si>
-    <t>青城精英</t>
-  </si>
-  <si>
-    <t>五毒精英</t>
-  </si>
-  <si>
-    <t>日月精英</t>
-  </si>
-  <si>
-    <t>雪山精英</t>
-  </si>
-  <si>
-    <t>番僧精英</t>
-  </si>
-  <si>
-    <t>星宿精英</t>
-  </si>
-  <si>
-    <t>铁掌精英</t>
-  </si>
-  <si>
-    <t>全真精英</t>
-  </si>
-  <si>
-    <t>明教精英</t>
-  </si>
-  <si>
-    <t>翡冷翠</t>
-  </si>
-  <si>
-    <t>侠客精英</t>
-  </si>
-  <si>
-    <t>恒山精英</t>
-  </si>
-  <si>
-    <t>329</t>
-  </si>
-  <si>
-    <t>昆仑精英</t>
   </si>
 </sst>
 </file>
@@ -1873,12 +1867,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2208,7 +2202,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A296" sqref="$A296:$XFD296"/>
+      <selection pane="bottomLeft" activeCell="H279" sqref="H279:H298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelCol="7"/>
@@ -9317,16 +9311,16 @@
       <c r="G274" s="1">
         <v>0</v>
       </c>
-      <c r="H274" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="275" customFormat="1" spans="1:8">
+      <c r="H274" s="7">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="275" s="1" customFormat="1" spans="1:8">
       <c r="A275">
         <v>331</v>
       </c>
-      <c r="B275" s="3" t="s">
-        <v>374</v>
+      <c r="B275" s="8" t="s">
+        <v>373</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>260</v>
@@ -9343,16 +9337,16 @@
       <c r="G275" s="1">
         <v>0</v>
       </c>
-      <c r="H275" s="7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="276" customFormat="1" spans="1:8">
+      <c r="H275" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="276" s="1" customFormat="1" spans="1:8">
       <c r="A276">
         <v>332</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>260</v>
@@ -9369,8 +9363,8 @@
       <c r="G276" s="1">
         <v>0</v>
       </c>
-      <c r="H276" s="7" t="s">
-        <v>377</v>
+      <c r="H276" s="9" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9378,7 +9372,7 @@
         <v>333</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C277" t="s">
         <v>260</v>
@@ -9396,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9404,7 +9398,7 @@
         <v>334</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C278" t="s">
         <v>62</v>
@@ -9422,15 +9416,15 @@
         <v>0</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="279" spans="1:8">
       <c r="A279">
         <v>335</v>
       </c>
-      <c r="B279" s="8" t="s">
-        <v>382</v>
+      <c r="B279" s="6" t="s">
+        <v>381</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>260</v>
@@ -9447,7 +9441,7 @@
       <c r="G279" s="1">
         <v>0</v>
       </c>
-      <c r="H279" s="9">
+      <c r="H279" s="7">
         <v>335</v>
       </c>
     </row>
@@ -9455,8 +9449,8 @@
       <c r="A280">
         <v>336</v>
       </c>
-      <c r="B280" s="8" t="s">
-        <v>383</v>
+      <c r="B280" s="6" t="s">
+        <v>382</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>260</v>
@@ -9473,7 +9467,7 @@
       <c r="G280" s="1">
         <v>0</v>
       </c>
-      <c r="H280" s="9">
+      <c r="H280" s="7">
         <v>336</v>
       </c>
     </row>
@@ -9481,8 +9475,8 @@
       <c r="A281">
         <v>337</v>
       </c>
-      <c r="B281" s="8" t="s">
-        <v>384</v>
+      <c r="B281" s="6" t="s">
+        <v>383</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>260</v>
@@ -9499,7 +9493,7 @@
       <c r="G281" s="1">
         <v>0</v>
       </c>
-      <c r="H281" s="9">
+      <c r="H281" s="7">
         <v>337</v>
       </c>
     </row>
@@ -9507,8 +9501,8 @@
       <c r="A282">
         <v>338</v>
       </c>
-      <c r="B282" s="8" t="s">
-        <v>385</v>
+      <c r="B282" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>260</v>
@@ -9525,7 +9519,7 @@
       <c r="G282" s="1">
         <v>0</v>
       </c>
-      <c r="H282" s="9">
+      <c r="H282" s="7">
         <v>338</v>
       </c>
     </row>
@@ -9533,8 +9527,8 @@
       <c r="A283">
         <v>339</v>
       </c>
-      <c r="B283" s="8" t="s">
-        <v>386</v>
+      <c r="B283" s="6" t="s">
+        <v>385</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>260</v>
@@ -9551,7 +9545,7 @@
       <c r="G283" s="1">
         <v>0</v>
       </c>
-      <c r="H283" s="9">
+      <c r="H283" s="7">
         <v>339</v>
       </c>
     </row>
@@ -9559,8 +9553,8 @@
       <c r="A284">
         <v>340</v>
       </c>
-      <c r="B284" s="8" t="s">
-        <v>387</v>
+      <c r="B284" s="6" t="s">
+        <v>386</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>260</v>
@@ -9577,7 +9571,7 @@
       <c r="G284" s="1">
         <v>0</v>
       </c>
-      <c r="H284" s="9">
+      <c r="H284" s="7">
         <v>340</v>
       </c>
     </row>
@@ -9585,8 +9579,8 @@
       <c r="A285">
         <v>341</v>
       </c>
-      <c r="B285" s="8" t="s">
-        <v>388</v>
+      <c r="B285" s="6" t="s">
+        <v>387</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>260</v>
@@ -9603,7 +9597,7 @@
       <c r="G285" s="1">
         <v>0</v>
       </c>
-      <c r="H285" s="9">
+      <c r="H285" s="7">
         <v>341</v>
       </c>
     </row>
@@ -9611,8 +9605,8 @@
       <c r="A286">
         <v>342</v>
       </c>
-      <c r="B286" s="8" t="s">
-        <v>389</v>
+      <c r="B286" s="6" t="s">
+        <v>388</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>260</v>
@@ -9629,7 +9623,7 @@
       <c r="G286" s="1">
         <v>0</v>
       </c>
-      <c r="H286" s="9">
+      <c r="H286" s="7">
         <v>342</v>
       </c>
     </row>
@@ -9637,8 +9631,8 @@
       <c r="A287">
         <v>343</v>
       </c>
-      <c r="B287" s="8" t="s">
-        <v>390</v>
+      <c r="B287" s="6" t="s">
+        <v>389</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>260</v>
@@ -9655,7 +9649,7 @@
       <c r="G287" s="1">
         <v>0</v>
       </c>
-      <c r="H287" s="9">
+      <c r="H287" s="7">
         <v>343</v>
       </c>
     </row>
@@ -9663,8 +9657,8 @@
       <c r="A288">
         <v>344</v>
       </c>
-      <c r="B288" s="8" t="s">
-        <v>391</v>
+      <c r="B288" s="6" t="s">
+        <v>390</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>260</v>
@@ -9681,7 +9675,7 @@
       <c r="G288" s="1">
         <v>0</v>
       </c>
-      <c r="H288" s="9">
+      <c r="H288" s="7">
         <v>344</v>
       </c>
     </row>
@@ -9689,8 +9683,8 @@
       <c r="A289">
         <v>345</v>
       </c>
-      <c r="B289" s="8" t="s">
-        <v>392</v>
+      <c r="B289" s="6" t="s">
+        <v>391</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>260</v>
@@ -9707,7 +9701,7 @@
       <c r="G289" s="1">
         <v>0</v>
       </c>
-      <c r="H289" s="9">
+      <c r="H289" s="7">
         <v>345</v>
       </c>
     </row>
@@ -9715,8 +9709,8 @@
       <c r="A290">
         <v>346</v>
       </c>
-      <c r="B290" s="8" t="s">
-        <v>393</v>
+      <c r="B290" s="6" t="s">
+        <v>392</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>260</v>
@@ -9733,7 +9727,7 @@
       <c r="G290" s="1">
         <v>0</v>
       </c>
-      <c r="H290" s="9">
+      <c r="H290" s="7">
         <v>346</v>
       </c>
     </row>
@@ -9741,8 +9735,8 @@
       <c r="A291">
         <v>347</v>
       </c>
-      <c r="B291" s="8" t="s">
-        <v>394</v>
+      <c r="B291" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>260</v>
@@ -9759,7 +9753,7 @@
       <c r="G291" s="1">
         <v>0</v>
       </c>
-      <c r="H291" s="9">
+      <c r="H291" s="7">
         <v>347</v>
       </c>
     </row>
@@ -9767,8 +9761,8 @@
       <c r="A292">
         <v>348</v>
       </c>
-      <c r="B292" s="8" t="s">
-        <v>395</v>
+      <c r="B292" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>260</v>
@@ -9785,7 +9779,7 @@
       <c r="G292" s="1">
         <v>0</v>
       </c>
-      <c r="H292" s="9">
+      <c r="H292" s="7">
         <v>348</v>
       </c>
     </row>
@@ -9793,8 +9787,8 @@
       <c r="A293">
         <v>349</v>
       </c>
-      <c r="B293" s="8" t="s">
-        <v>396</v>
+      <c r="B293" s="6" t="s">
+        <v>395</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>260</v>
@@ -9811,7 +9805,7 @@
       <c r="G293" s="1">
         <v>0</v>
       </c>
-      <c r="H293" s="9">
+      <c r="H293" s="7">
         <v>349</v>
       </c>
     </row>
@@ -9819,8 +9813,8 @@
       <c r="A294">
         <v>350</v>
       </c>
-      <c r="B294" s="8" t="s">
-        <v>397</v>
+      <c r="B294" s="6" t="s">
+        <v>396</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>260</v>
@@ -9837,16 +9831,16 @@
       <c r="G294" s="1">
         <v>0</v>
       </c>
-      <c r="H294" s="9">
+      <c r="H294" s="7">
         <v>350</v>
       </c>
     </row>
-    <row r="295" s="1" customFormat="1" spans="1:8">
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>351</v>
       </c>
-      <c r="B295" s="8" t="s">
-        <v>398</v>
+      <c r="B295" s="6" t="s">
+        <v>397</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>260</v>
@@ -9863,7 +9857,7 @@
       <c r="G295" s="1">
         <v>0</v>
       </c>
-      <c r="H295" s="9">
+      <c r="H295" s="7">
         <v>351</v>
       </c>
     </row>
@@ -9871,8 +9865,8 @@
       <c r="A296">
         <v>352</v>
       </c>
-      <c r="B296" s="8" t="s">
-        <v>399</v>
+      <c r="B296" s="6" t="s">
+        <v>398</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>260</v>
@@ -9889,16 +9883,16 @@
       <c r="G296" s="1">
         <v>0</v>
       </c>
-      <c r="H296" s="9">
+      <c r="H296" s="7">
         <v>352</v>
       </c>
     </row>
-    <row r="297" s="1" customFormat="1" spans="1:8">
+    <row r="297" customFormat="1" spans="1:8">
       <c r="A297">
         <v>353</v>
       </c>
-      <c r="B297" s="6" t="s">
-        <v>400</v>
+      <c r="B297" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>260</v>
@@ -9915,16 +9909,16 @@
       <c r="G297" s="1">
         <v>0</v>
       </c>
-      <c r="H297" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
+      <c r="H297" s="7">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="298" customFormat="1" spans="1:8">
       <c r="A298">
         <v>354</v>
       </c>
-      <c r="B298" s="8" t="s">
-        <v>402</v>
+      <c r="B298" s="6" t="s">
+        <v>400</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>260</v>
@@ -9941,8 +9935,8 @@
       <c r="G298" s="1">
         <v>0</v>
       </c>
-      <c r="H298" s="9">
-        <v>334</v>
+      <c r="H298" s="7">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
